--- a/Luban/Config/Datas/BuildingConfigTables.xlsx
+++ b/Luban/Config/Datas/BuildingConfigTables.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFEEE4C-9D22-48FD-B0CC-C0CE5EB4E320}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75A0A56-832D-43CA-9A5D-569554C21E0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BaseConf" sheetId="1" r:id="rId1"/>
+    <sheet name="Production" sheetId="2" r:id="rId2"/>
+    <sheet name="Storage" sheetId="3" r:id="rId3"/>
+    <sheet name="SandCtrl" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="79">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +298,18 @@
   </si>
   <si>
     <t>(map#sep=,),EResType,int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -432,11 +447,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,6 +490,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -746,24 +771,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.4140625" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="9" width="24.75" customWidth="1"/>
-    <col min="10" max="10" width="39.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -795,7 +820,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -821,13 +846,13 @@
         <v>75</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -859,7 +884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -880,7 +905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -895,7 +920,7 @@
         <v>100</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>73</v>
@@ -910,7 +935,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -940,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -970,7 +995,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -1000,7 +1025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -1030,7 +1055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1060,7 +1085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
         <v>14</v>
@@ -1090,7 +1115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
@@ -1120,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -1150,7 +1175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -1180,7 +1205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>39</v>
@@ -1210,7 +1235,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>40</v>
@@ -1240,7 +1265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -1270,7 +1295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -1300,7 +1325,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1330,7 +1355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>19</v>
@@ -1359,8 +1384,9 @@
       <c r="J20" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9" t="s">
         <v>20</v>
@@ -1390,7 +1416,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>21</v>
@@ -1420,7 +1446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>18</v>
@@ -1450,21 +1476,68 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L42" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1BB9E0-213D-4133-8DBC-0A9C6C22C488}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509B7A1C-56F8-4DD5-928F-D1AA1E7059A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC83719A-84A9-4DF2-A50E-A0DB00B6DEEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
